--- a/rapportAfsnit/gPilotforsoeg/Databehandling/Acc/Roed/resultater.xlsx
+++ b/rapportAfsnit/gPilotforsoeg/Databehandling/Acc/Roed/resultater.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13400" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="11620" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
-  <si>
-    <t>PO1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
+  <si>
+    <t>Mean værdier</t>
   </si>
   <si>
     <t>PO2</t>
@@ -30,9 +30,6 @@
     <t>PO3</t>
   </si>
   <si>
-    <t xml:space="preserve">MEAN: </t>
-  </si>
-  <si>
     <t>PN1</t>
   </si>
   <si>
@@ -42,7 +39,7 @@
     <t>PN3</t>
   </si>
   <si>
-    <t>MEAN</t>
+    <t>LODRET</t>
   </si>
   <si>
     <t>LO1</t>
@@ -57,12 +54,30 @@
     <t>LN1</t>
   </si>
   <si>
+    <t>PO1 x</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
     <t>LN2</t>
   </si>
   <si>
     <t>LN3</t>
   </si>
   <si>
+    <t>VANDRET</t>
+  </si>
+  <si>
+    <t>PLAN</t>
+  </si>
+  <si>
     <t>VH1</t>
   </si>
   <si>
@@ -72,9 +87,6 @@
     <t>VH3</t>
   </si>
   <si>
-    <t xml:space="preserve">MEAN </t>
-  </si>
-  <si>
     <t>VV1</t>
   </si>
   <si>
@@ -84,30 +96,56 @@
     <t>VV3</t>
   </si>
   <si>
-    <t>Afvigelse datablad</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>OFFSET</t>
-  </si>
-  <si>
-    <t>EN GRAD</t>
+    <t>Procent</t>
+  </si>
+  <si>
+    <t>Afvigelse fra 1,7</t>
+  </si>
+  <si>
+    <t>Offset</t>
+  </si>
+  <si>
+    <t>En grad</t>
+  </si>
+  <si>
+    <t>90 grader</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000E+00"/>
+    <numFmt numFmtId="184" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -130,15 +168,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Besøgt link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -468,319 +525,597 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:B73"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" ht="33">
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>1.7397</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>1.6448</v>
+      </c>
+      <c r="E3">
+        <v>-3.2500000000000001E-2</v>
+      </c>
+      <c r="F3">
+        <f>E3*100</f>
+        <v>-3.25</v>
+      </c>
+      <c r="H3">
+        <v>1.6773</v>
+      </c>
+      <c r="J3" s="4">
+        <f>-3.6095*10^-4</f>
+        <v>-3.6095000000000002E-4</v>
+      </c>
+      <c r="K3">
+        <v>-3.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1.7398</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
+      <c r="C4">
+        <v>1.6354</v>
+      </c>
+      <c r="E4" s="3">
+        <v>-3.7999999999999999E-2</v>
+      </c>
+      <c r="F4">
+        <f>E4*100</f>
+        <v>-3.8</v>
+      </c>
+      <c r="H4">
+        <v>1.6734</v>
+      </c>
+      <c r="J4">
+        <f>-4.2242*10^-4</f>
+        <v>-4.2242000000000001E-4</v>
+      </c>
+      <c r="K4" s="3">
+        <v>-3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1.7397</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
+      <c r="C5">
+        <v>1.9392</v>
+      </c>
+      <c r="E5">
+        <v>0.14069999999999999</v>
+      </c>
+      <c r="F5">
+        <f>E5*100</f>
+        <v>14.069999999999999</v>
+      </c>
+      <c r="H5">
+        <v>1.7985</v>
+      </c>
+      <c r="J5">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="K5">
+        <v>-0.14069999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1.7397</v>
-      </c>
-      <c r="D4">
-        <v>2.3361000000000001</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2">
-        <v>-0.59640000000000004</v>
-      </c>
-      <c r="H4">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="I4">
-        <f>H4*90</f>
-        <v>2.34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
+      <c r="C7">
+        <v>1.6483000000000001</v>
+      </c>
+      <c r="E7">
+        <v>-3.04E-2</v>
+      </c>
+      <c r="F7">
+        <f>E7*100</f>
+        <v>-3.04</v>
+      </c>
+      <c r="H7">
+        <v>1.6787000000000001</v>
+      </c>
+      <c r="J7">
+        <f>-3.382*10^-4</f>
+        <v>-3.3820000000000003E-4</v>
+      </c>
+      <c r="K7">
+        <v>-3.04E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <v>1.5568</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
+      <c r="C8">
+        <v>1.6404000000000001</v>
+      </c>
+      <c r="E8" s="3">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="F8">
+        <f>E8*100</f>
+        <v>-3.5000000000000004</v>
+      </c>
+      <c r="H8">
+        <v>1.6755</v>
+      </c>
+      <c r="J8">
+        <f>-3.8925*10^-4</f>
+        <v>-3.8925E-4</v>
+      </c>
+      <c r="K8" s="3">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
-        <v>1.5569999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
+      <c r="C9">
+        <v>1.3824000000000001</v>
+      </c>
+      <c r="E9">
+        <v>-0.18679999999999999</v>
+      </c>
+      <c r="F9">
+        <f>E9*100</f>
+        <v>-18.68</v>
+      </c>
+      <c r="H9">
+        <v>1.5691999999999999</v>
+      </c>
+      <c r="J9" s="3">
+        <v>-2.0999999999999999E-3</v>
+      </c>
+      <c r="K9">
+        <v>-0.18679999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="33">
+      <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1.5571999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
-        <v>1.5569999999999999</v>
-      </c>
-      <c r="D9" s="2">
-        <v>-8.4110999999999994</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9">
-        <v>9.9680999999999997</v>
-      </c>
-      <c r="H9">
-        <v>-9.35E-2</v>
-      </c>
-      <c r="I9">
-        <f>H9*90</f>
-        <v>-8.4149999999999991</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
+      <c r="C13">
+        <v>1.6496</v>
+      </c>
+      <c r="E13">
+        <v>-2.9600000000000001E-2</v>
+      </c>
+      <c r="F13">
+        <f>E13*100</f>
+        <v>-2.96</v>
+      </c>
+      <c r="H13">
+        <v>1.6793</v>
+      </c>
+      <c r="J13">
+        <f>-3.2928*10^-4</f>
+        <v>-3.2928000000000005E-4</v>
+      </c>
+      <c r="K13">
+        <v>-2.9600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
-        <v>1.7458</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
+      <c r="C14">
+        <v>1.9227000000000001</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="F14">
+        <f>E14*100</f>
+        <v>13.100000000000001</v>
+      </c>
+      <c r="H14">
+        <v>1.7917000000000001</v>
+      </c>
+      <c r="J14">
+        <v>1.5E-3</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.13100000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
-        <v>1.7457</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1.7458</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1.7458</v>
-      </c>
-      <c r="D14">
-        <v>2.6924000000000001</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14">
-        <v>-0.94669999999999999</v>
-      </c>
-      <c r="H14">
-        <v>2.9899999999999999E-2</v>
-      </c>
-      <c r="I14">
-        <f>H14*90</f>
-        <v>2.6909999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="2">
-        <v>1.552</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="C15" s="3">
+        <v>1.6653</v>
+      </c>
+      <c r="E15">
+        <v>-2.0400000000000001E-2</v>
+      </c>
+      <c r="F15">
+        <f>E15*100</f>
+        <v>-2.04</v>
+      </c>
+      <c r="H15">
+        <v>1.6857</v>
+      </c>
+      <c r="J15">
+        <f>-2.2675*10^-4</f>
+        <v>-2.2675000000000001E-4</v>
+      </c>
+      <c r="K15">
+        <v>-2.0400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B17">
-        <v>1.5519000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>1.6392</v>
+      </c>
+      <c r="E17">
+        <v>-3.5799999999999998E-2</v>
+      </c>
+      <c r="F17">
+        <f>E17*100</f>
+        <v>-3.58</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1.675</v>
+      </c>
+      <c r="J17" s="3">
+        <f>-3.9756*10^-4</f>
+        <v>-3.9756000000000004E-4</v>
+      </c>
+      <c r="K17" s="3">
+        <v>-3.5799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>13</v>
       </c>
-      <c r="B18">
-        <v>1.5518000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>1.3633</v>
+      </c>
+      <c r="E18">
+        <v>-0.19800000000000001</v>
+      </c>
+      <c r="F18">
+        <f>E18*100</f>
+        <v>-19.8</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1.5613999999999999</v>
+      </c>
+      <c r="J18">
+        <f>-0.0022</f>
+        <v>-2.2000000000000001E-3</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-0.19800000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <v>1.5519000000000001</v>
-      </c>
-      <c r="D19">
-        <v>-8.7104999999999997</v>
-      </c>
-      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>1.653</v>
+      </c>
+      <c r="E19">
+        <v>-2.7699999999999999E-2</v>
+      </c>
+      <c r="F19">
+        <f>E19*100</f>
+        <v>-2.77</v>
+      </c>
+      <c r="H19">
+        <v>1.6806000000000001</v>
+      </c>
+      <c r="J19" s="5">
+        <f>-3.0733*10^-4</f>
+        <v>-3.0733000000000003E-4</v>
+      </c>
+      <c r="K19" s="3">
+        <v>-2.7699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="33">
+      <c r="B21" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1.367</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="F23">
+        <f>E23*100</f>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="H23">
+        <v>1.7924</v>
+      </c>
+      <c r="J23">
+        <v>1.5E-3</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>1.6406000000000001</v>
+      </c>
+      <c r="E24">
+        <v>-3.4200000000000001E-2</v>
+      </c>
+      <c r="F24">
+        <f>E24*100</f>
+        <v>-3.42</v>
+      </c>
+      <c r="H24">
+        <v>1.6759999999999999</v>
+      </c>
+      <c r="J24">
+        <f>-3.804*10^-4</f>
+        <v>-3.8039999999999998E-4</v>
+      </c>
+      <c r="K24">
+        <v>-3.4200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>1.6601999999999999</v>
+      </c>
+      <c r="E25" s="3">
+        <v>-2.46E-2</v>
+      </c>
+      <c r="F25">
+        <f>E25*100</f>
+        <v>-2.46</v>
+      </c>
+      <c r="H25">
+        <v>1.6828000000000001</v>
+      </c>
+      <c r="J25">
+        <f>-2.7285*10^-4</f>
+        <v>-2.7284999999999999E-4</v>
+      </c>
+      <c r="K25" s="3">
+        <v>-2.46E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
         <v>22</v>
       </c>
-      <c r="F19">
-        <v>-1.1405000000000001</v>
-      </c>
-      <c r="H19">
-        <v>-9.6799999999999997E-2</v>
-      </c>
-      <c r="I19">
-        <f>H19*90</f>
-        <v>-8.7119999999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
+      <c r="C27">
+        <v>1.9244000000000001</v>
+      </c>
+      <c r="E27">
+        <v>-0.19589999999999999</v>
+      </c>
+      <c r="F27">
+        <f>E27*100</f>
+        <v>-19.59</v>
+      </c>
+      <c r="H27">
+        <v>1.5629</v>
+      </c>
+      <c r="J27">
+        <v>-2.2000000000000001E-3</v>
+      </c>
+      <c r="K27">
+        <v>-0.19589999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28">
+        <v>1.6417999999999999</v>
+      </c>
+      <c r="E28">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="F28">
+        <f>E28*100</f>
+        <v>-3.5000000000000004</v>
+      </c>
+      <c r="H28">
+        <v>1.6755</v>
+      </c>
+      <c r="J28">
+        <f>-3.8846*10^-4</f>
+        <v>-3.8845999999999998E-4</v>
+      </c>
+      <c r="K28" s="3">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
         <v>14</v>
       </c>
-      <c r="B21">
-        <v>1.5557000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22">
-        <v>1.5558000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23">
-        <v>1.5557000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24">
-        <v>1.5558000000000001</v>
-      </c>
-      <c r="D24">
-        <v>-8.4848999999999997</v>
-      </c>
-      <c r="E24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24">
-        <v>10.050700000000001</v>
-      </c>
-      <c r="H24">
-        <v>-9.4299999999999995E-2</v>
-      </c>
-      <c r="I24">
-        <f>H24*90</f>
-        <v>-8.4870000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26">
-        <v>1.7416</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27">
-        <v>1.7416</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28">
-        <v>1.7415</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29">
-        <v>1.7416</v>
-      </c>
-      <c r="D29">
-        <v>2.4458000000000002</v>
-      </c>
-      <c r="E29" t="s">
-        <v>22</v>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29">
+        <v>1.6583000000000001</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-2.3400000000000001E-2</v>
       </c>
       <c r="F29">
-        <v>-0.70420000000000005</v>
+        <f>E29*100</f>
+        <v>-2.34</v>
       </c>
       <c r="H29">
-        <v>2.7199999999999998E-2</v>
-      </c>
-      <c r="I29">
-        <f>H29*90</f>
-        <v>2.448</v>
+        <v>1.6836</v>
+      </c>
+      <c r="J29">
+        <f>-2.6033*10^-4</f>
+        <v>-2.6033000000000002E-4</v>
+      </c>
+      <c r="K29" s="3">
+        <v>-2.3400000000000001E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/rapportAfsnit/gPilotforsoeg/Databehandling/Acc/Roed/resultater.xlsx
+++ b/rapportAfsnit/gPilotforsoeg/Databehandling/Acc/Roed/resultater.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11620" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="3760" yWindow="0" windowWidth="25360" windowHeight="15580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
   <si>
     <t>Mean værdier</t>
   </si>
@@ -39,9 +39,6 @@
     <t>PN3</t>
   </si>
   <si>
-    <t>LODRET</t>
-  </si>
-  <si>
     <t>LO1</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
     <t>LN1</t>
   </si>
   <si>
-    <t>PO1 x</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -72,12 +66,6 @@
     <t>LN3</t>
   </si>
   <si>
-    <t>VANDRET</t>
-  </si>
-  <si>
-    <t>PLAN</t>
-  </si>
-  <si>
     <t>VH1</t>
   </si>
   <si>
@@ -96,31 +84,44 @@
     <t>VV3</t>
   </si>
   <si>
-    <t>Procent</t>
-  </si>
-  <si>
-    <t>Afvigelse fra 1,7</t>
-  </si>
-  <si>
-    <t>Offset</t>
-  </si>
-  <si>
-    <t>En grad</t>
-  </si>
-  <si>
-    <t>90 grader</t>
+    <t>PO1</t>
+  </si>
+  <si>
+    <t>Gennemsnit offset</t>
+  </si>
+  <si>
+    <t>1 g-påvirkning</t>
+  </si>
+  <si>
+    <t>Offset 0 g-påvirkning</t>
+  </si>
+  <si>
+    <t>Sensitivitet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PLAN (Z-aksen)</t>
+  </si>
+  <si>
+    <t>LODRET (Y-aksen)</t>
+  </si>
+  <si>
+    <t>VANDRET (x-aksen)</t>
+  </si>
+  <si>
+    <t>Spænding 1 grad</t>
+  </si>
+  <si>
+    <t>Spænding 90 grader</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.000E+00"/>
-    <numFmt numFmtId="184" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -150,6 +151,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -168,7 +188,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -178,24 +198,124 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="57">
     <cellStyle name="Besøgt link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besøgt link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besøgt link" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Besøgt link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -525,76 +645,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="7" width="17.1640625" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="33">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
         <v>29</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>1.6448</v>
       </c>
-      <c r="E3">
-        <v>-3.2500000000000001E-2</v>
-      </c>
-      <c r="F3">
-        <f>E3*100</f>
-        <v>-3.25</v>
-      </c>
-      <c r="H3">
+      <c r="E3" s="6">
         <v>1.6773</v>
       </c>
-      <c r="J3" s="4">
-        <f>-3.6095*10^-4</f>
-        <v>-3.6095000000000002E-4</v>
-      </c>
-      <c r="K3">
-        <v>-3.2500000000000001E-2</v>
-      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -602,27 +716,16 @@
       <c r="C4">
         <v>1.6354</v>
       </c>
-      <c r="E4" s="3">
-        <v>-3.7999999999999999E-2</v>
-      </c>
-      <c r="F4">
-        <f>E4*100</f>
-        <v>-3.8</v>
-      </c>
-      <c r="H4">
+      <c r="E4" s="6">
         <v>1.6734</v>
       </c>
-      <c r="J4">
-        <f>-4.2242*10^-4</f>
-        <v>-4.2242000000000001E-4</v>
-      </c>
-      <c r="K4" s="3">
-        <v>-3.7999999999999999E-2</v>
-      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -630,26 +733,34 @@
       <c r="C5">
         <v>1.9392</v>
       </c>
-      <c r="E5">
-        <v>0.14069999999999999</v>
-      </c>
-      <c r="F5">
-        <f>E5*100</f>
-        <v>14.069999999999999</v>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6">
+        <f>(E3+E4)/2</f>
+        <v>1.6753499999999999</v>
+      </c>
+      <c r="G5">
+        <v>1.7985</v>
       </c>
       <c r="H5">
-        <v>1.7985</v>
+        <f>G5-F5</f>
+        <v>0.12315000000000009</v>
       </c>
       <c r="J5">
-        <v>1.6000000000000001E-3</v>
+        <f>F5+H5*0</f>
+        <v>1.6753499999999999</v>
       </c>
       <c r="K5">
-        <v>-0.14069999999999999</v>
-      </c>
+        <f>F5+H5*90</f>
+        <v>12.758850000000008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -657,27 +768,16 @@
       <c r="C7">
         <v>1.6483000000000001</v>
       </c>
-      <c r="E7">
-        <v>-3.04E-2</v>
-      </c>
-      <c r="F7">
-        <f>E7*100</f>
-        <v>-3.04</v>
-      </c>
-      <c r="H7">
+      <c r="E7" s="6">
         <v>1.6787000000000001</v>
       </c>
-      <c r="J7">
-        <f>-3.382*10^-4</f>
-        <v>-3.3820000000000003E-4</v>
-      </c>
-      <c r="K7">
-        <v>-3.04E-2</v>
-      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -685,27 +785,16 @@
       <c r="C8">
         <v>1.6404000000000001</v>
       </c>
-      <c r="E8" s="3">
-        <v>-3.5000000000000003E-2</v>
-      </c>
-      <c r="F8">
-        <f>E8*100</f>
-        <v>-3.5000000000000004</v>
-      </c>
-      <c r="H8">
+      <c r="E8" s="6">
         <v>1.6755</v>
       </c>
-      <c r="J8">
-        <f>-3.8925*10^-4</f>
-        <v>-3.8925E-4</v>
-      </c>
-      <c r="K8" s="3">
-        <v>-3.5000000000000003E-2</v>
-      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -713,405 +802,358 @@
       <c r="C9">
         <v>1.3824000000000001</v>
       </c>
-      <c r="E9">
-        <v>-0.18679999999999999</v>
-      </c>
-      <c r="F9">
-        <f>E9*100</f>
-        <v>-18.68</v>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6">
+        <f>(E7+E8)/2</f>
+        <v>1.6771</v>
+      </c>
+      <c r="G9">
+        <v>1.5691999999999999</v>
       </c>
       <c r="H9">
+        <f>G9-F9</f>
+        <v>-0.10790000000000011</v>
+      </c>
+      <c r="J9">
+        <f>F9+(H9*1)</f>
         <v>1.5691999999999999</v>
       </c>
-      <c r="J9" s="3">
-        <v>-2.0999999999999999E-3</v>
-      </c>
       <c r="K9">
-        <v>-0.18679999999999999</v>
-      </c>
+        <f>F9+H9*90</f>
+        <v>-8.0339000000000098</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:11" ht="33">
       <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:11">
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" t="s">
-        <v>29</v>
-      </c>
+      <c r="E12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>1.6496</v>
       </c>
-      <c r="E13">
-        <v>-2.9600000000000001E-2</v>
-      </c>
-      <c r="F13">
-        <f>E13*100</f>
-        <v>-2.96</v>
-      </c>
-      <c r="H13">
+      <c r="E13" s="6">
         <v>1.6793</v>
       </c>
-      <c r="J13">
-        <f>-3.2928*10^-4</f>
-        <v>-3.2928000000000005E-4</v>
-      </c>
-      <c r="K13">
-        <v>-2.9600000000000001E-2</v>
-      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>1.9227000000000001</v>
       </c>
-      <c r="E14" s="3">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="F14">
-        <f>E14*100</f>
-        <v>13.100000000000001</v>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6">
+        <f>(E13+E15)/2</f>
+        <v>1.6825000000000001</v>
+      </c>
+      <c r="G14">
+        <v>1.7917000000000001</v>
       </c>
       <c r="H14">
+        <f>G14-F14</f>
+        <v>0.10919999999999996</v>
+      </c>
+      <c r="J14">
+        <f>F14+H14*1</f>
         <v>1.7917000000000001</v>
       </c>
-      <c r="J14">
-        <v>1.5E-3</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0.13100000000000001</v>
+      <c r="K14">
+        <f>F14+H14*90</f>
+        <v>11.510499999999997</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="3">
         <v>1.6653</v>
       </c>
-      <c r="E15">
-        <v>-2.0400000000000001E-2</v>
-      </c>
-      <c r="F15">
-        <f>E15*100</f>
-        <v>-2.04</v>
-      </c>
-      <c r="H15">
+      <c r="E15" s="6">
         <v>1.6857</v>
       </c>
-      <c r="J15">
-        <f>-2.2675*10^-4</f>
-        <v>-2.2675000000000001E-4</v>
-      </c>
-      <c r="K15">
-        <v>-2.0400000000000001E-2</v>
-      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17">
         <v>1.6392</v>
       </c>
-      <c r="E17">
-        <v>-3.5799999999999998E-2</v>
-      </c>
-      <c r="F17">
-        <f>E17*100</f>
-        <v>-3.58</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="E17" s="8">
         <v>1.675</v>
       </c>
-      <c r="J17" s="3">
-        <f>-3.9756*10^-4</f>
-        <v>-3.9756000000000004E-4</v>
-      </c>
-      <c r="K17" s="3">
-        <v>-3.5799999999999998E-2</v>
-      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
         <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
       </c>
       <c r="C18">
         <v>1.3633</v>
       </c>
-      <c r="E18">
-        <v>-0.19800000000000001</v>
-      </c>
-      <c r="F18">
-        <f>E18*100</f>
-        <v>-19.8</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="E18" s="8"/>
+      <c r="F18" s="8">
+        <f>(E17+E19)/2</f>
+        <v>1.6778</v>
+      </c>
+      <c r="G18" s="7">
         <v>1.5613999999999999</v>
       </c>
+      <c r="H18" s="7">
+        <f>G18-F18</f>
+        <v>-0.11640000000000006</v>
+      </c>
       <c r="J18">
-        <f>-0.0022</f>
-        <v>-2.2000000000000001E-3</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-0.19800000000000001</v>
+        <f>F18+H18*1</f>
+        <v>1.5613999999999999</v>
+      </c>
+      <c r="K18">
+        <f>F18+H18*90</f>
+        <v>-8.7982000000000067</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
         <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
       </c>
       <c r="C19">
         <v>1.653</v>
       </c>
-      <c r="E19">
-        <v>-2.7699999999999999E-2</v>
-      </c>
-      <c r="F19">
-        <f>E19*100</f>
-        <v>-2.77</v>
-      </c>
-      <c r="H19">
+      <c r="E19" s="6">
         <v>1.6806000000000001</v>
       </c>
-      <c r="J19" s="5">
-        <f>-3.0733*10^-4</f>
-        <v>-3.0733000000000003E-4</v>
-      </c>
-      <c r="K19" s="3">
-        <v>-2.7699999999999999E-2</v>
-      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:11" ht="33">
       <c r="B21" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:11">
       <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" t="s">
-        <v>27</v>
-      </c>
-      <c r="J22" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" t="s">
-        <v>29</v>
-      </c>
+      <c r="E22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C23" s="3">
         <v>1.367</v>
       </c>
-      <c r="E23" s="3">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="F23">
-        <f>E23*100</f>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="H23">
+      <c r="E23" s="6"/>
+      <c r="F23" s="6">
+        <f>(E24+E25)/2</f>
+        <v>1.6794</v>
+      </c>
+      <c r="G23" s="6">
         <v>1.7924</v>
       </c>
+      <c r="H23" s="6">
+        <f>G23-F23</f>
+        <v>0.11299999999999999</v>
+      </c>
       <c r="J23">
-        <v>1.5E-3</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0.13200000000000001</v>
+        <f>F23+H23*1</f>
+        <v>1.7924</v>
+      </c>
+      <c r="K23">
+        <f>F23+H23*90</f>
+        <v>11.849399999999997</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C24">
         <v>1.6406000000000001</v>
       </c>
-      <c r="E24">
-        <v>-3.4200000000000001E-2</v>
-      </c>
-      <c r="F24">
-        <f>E24*100</f>
-        <v>-3.42</v>
-      </c>
-      <c r="H24">
+      <c r="E24" s="8">
         <v>1.6759999999999999</v>
       </c>
-      <c r="J24">
-        <f>-3.804*10^-4</f>
-        <v>-3.8039999999999998E-4</v>
-      </c>
-      <c r="K24">
-        <v>-3.4200000000000001E-2</v>
-      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C25">
         <v>1.6601999999999999</v>
       </c>
-      <c r="E25" s="3">
-        <v>-2.46E-2</v>
-      </c>
-      <c r="F25">
-        <f>E25*100</f>
-        <v>-2.46</v>
-      </c>
-      <c r="H25">
+      <c r="E25" s="6">
         <v>1.6828000000000001</v>
       </c>
-      <c r="J25">
-        <f>-2.7285*10^-4</f>
-        <v>-2.7284999999999999E-4</v>
-      </c>
-      <c r="K25" s="3">
-        <v>-2.46E-2</v>
-      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C27">
         <v>1.9244000000000001</v>
       </c>
-      <c r="E27">
-        <v>-0.19589999999999999</v>
-      </c>
-      <c r="F27">
-        <f>E27*100</f>
-        <v>-19.59</v>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6">
+        <f>(E28+E29)/2</f>
+        <v>1.6795499999999999</v>
+      </c>
+      <c r="G27">
+        <v>1.5629</v>
       </c>
       <c r="H27">
+        <f>G27-F27</f>
+        <v>-0.11664999999999992</v>
+      </c>
+      <c r="J27">
+        <f>F27+H27*1</f>
         <v>1.5629</v>
       </c>
-      <c r="J27">
-        <v>-2.2000000000000001E-3</v>
-      </c>
       <c r="K27">
-        <v>-0.19589999999999999</v>
+        <f>F27+H27*90</f>
+        <v>-8.8189499999999938</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C28">
         <v>1.6417999999999999</v>
       </c>
-      <c r="E28">
-        <v>-3.5000000000000003E-2</v>
-      </c>
-      <c r="F28">
-        <f>E28*100</f>
-        <v>-3.5000000000000004</v>
-      </c>
-      <c r="H28">
+      <c r="E28" s="6">
         <v>1.6755</v>
       </c>
-      <c r="J28">
-        <f>-3.8846*10^-4</f>
-        <v>-3.8845999999999998E-4</v>
-      </c>
-      <c r="K28" s="3">
-        <v>-3.5000000000000003E-2</v>
-      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C29">
         <v>1.6583000000000001</v>
       </c>
-      <c r="E29" s="3">
-        <v>-2.3400000000000001E-2</v>
-      </c>
-      <c r="F29">
-        <f>E29*100</f>
-        <v>-2.34</v>
-      </c>
-      <c r="H29">
+      <c r="E29" s="6">
         <v>1.6836</v>
       </c>
-      <c r="J29">
-        <f>-2.6033*10^-4</f>
-        <v>-2.6033000000000002E-4</v>
-      </c>
-      <c r="K29" s="3">
-        <v>-2.3400000000000001E-2</v>
-      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
